--- a/BIVN_PACKING/Model sử dụng phần mềm packing đóng gói BIVN.xlsx
+++ b/BIVN_PACKING/Model sử dụng phần mềm packing đóng gói BIVN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="636">
   <si>
     <t>STT</t>
   </si>
@@ -1926,6 +1926,12 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>39E1000C28C5</t>
+  </si>
+  <si>
+    <t>D000km001</t>
   </si>
 </sst>
 </file>
@@ -2292,15 +2298,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2309,6 +2306,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2319,14 +2325,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2629,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G395"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F396" sqref="F396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2671,10 +2677,10 @@
       <c r="A2" s="40">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -2689,8 +2695,8 @@
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="2" t="s">
         <v>232</v>
       </c>
@@ -2703,8 +2709,8 @@
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="2" t="s">
         <v>233</v>
       </c>
@@ -2717,8 +2723,8 @@
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="2" t="s">
         <v>234</v>
       </c>
@@ -2731,8 +2737,8 @@
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="2" t="s">
         <v>235</v>
       </c>
@@ -2745,8 +2751,8 @@
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="2" t="s">
         <v>236</v>
       </c>
@@ -2759,8 +2765,8 @@
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="2" t="s">
         <v>237</v>
       </c>
@@ -2773,8 +2779,8 @@
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="2" t="s">
         <v>238</v>
       </c>
@@ -2787,8 +2793,8 @@
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="2" t="s">
         <v>239</v>
       </c>
@@ -2801,8 +2807,8 @@
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="2" t="s">
         <v>240</v>
       </c>
@@ -2815,8 +2821,8 @@
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="2" t="s">
         <v>241</v>
       </c>
@@ -2829,8 +2835,8 @@
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="2" t="s">
         <v>242</v>
       </c>
@@ -2843,8 +2849,8 @@
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="2" t="s">
         <v>243</v>
       </c>
@@ -2857,8 +2863,8 @@
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="2" t="s">
         <v>244</v>
       </c>
@@ -2871,8 +2877,8 @@
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="2" t="s">
         <v>245</v>
       </c>
@@ -2885,8 +2891,8 @@
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="2" t="s">
         <v>246</v>
       </c>
@@ -2899,8 +2905,8 @@
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="2" t="s">
         <v>247</v>
       </c>
@@ -2913,8 +2919,8 @@
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="2" t="s">
         <v>248</v>
       </c>
@@ -2927,8 +2933,8 @@
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="2" t="s">
         <v>249</v>
       </c>
@@ -2941,8 +2947,8 @@
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="2" t="s">
         <v>250</v>
       </c>
@@ -2955,8 +2961,8 @@
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="2" t="s">
         <v>251</v>
       </c>
@@ -2969,8 +2975,8 @@
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="2" t="s">
         <v>252</v>
       </c>
@@ -2983,8 +2989,8 @@
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="2" t="s">
         <v>253</v>
       </c>
@@ -2997,8 +3003,8 @@
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="2" t="s">
         <v>254</v>
       </c>
@@ -3011,8 +3017,8 @@
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="2" t="s">
         <v>255</v>
       </c>
@@ -3025,8 +3031,8 @@
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="2" t="s">
         <v>256</v>
       </c>
@@ -3039,8 +3045,8 @@
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="2" t="s">
         <v>257</v>
       </c>
@@ -3053,8 +3059,8 @@
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="2" t="s">
         <v>258</v>
       </c>
@@ -3067,8 +3073,8 @@
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="2" t="s">
         <v>259</v>
       </c>
@@ -3081,8 +3087,8 @@
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="2" t="s">
         <v>260</v>
       </c>
@@ -3095,8 +3101,8 @@
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="2" t="s">
         <v>261</v>
       </c>
@@ -3109,8 +3115,8 @@
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="2" t="s">
         <v>262</v>
       </c>
@@ -3123,8 +3129,8 @@
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="2" t="s">
         <v>263</v>
       </c>
@@ -3137,8 +3143,8 @@
     </row>
     <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="2" t="s">
         <v>264</v>
       </c>
@@ -3151,8 +3157,8 @@
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="2" t="s">
         <v>265</v>
       </c>
@@ -3165,8 +3171,8 @@
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="2" t="s">
         <v>266</v>
       </c>
@@ -3179,8 +3185,8 @@
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="2" t="s">
         <v>267</v>
       </c>
@@ -3193,8 +3199,8 @@
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="2" t="s">
         <v>268</v>
       </c>
@@ -3207,8 +3213,8 @@
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="2" t="s">
         <v>269</v>
       </c>
@@ -3221,8 +3227,8 @@
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="2" t="s">
         <v>270</v>
       </c>
@@ -3235,8 +3241,8 @@
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="2" t="s">
         <v>271</v>
       </c>
@@ -3249,8 +3255,8 @@
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="2" t="s">
         <v>272</v>
       </c>
@@ -3263,8 +3269,8 @@
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="2" t="s">
         <v>273</v>
       </c>
@@ -3277,8 +3283,8 @@
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="2" t="s">
         <v>274</v>
       </c>
@@ -3291,8 +3297,8 @@
     </row>
     <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="2" t="s">
         <v>275</v>
       </c>
@@ -3305,8 +3311,8 @@
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="12" t="s">
         <v>276</v>
       </c>
@@ -3321,10 +3327,10 @@
       <c r="A48" s="40">
         <v>5</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3339,8 +3345,8 @@
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="2" t="s">
         <v>375</v>
       </c>
@@ -3353,8 +3359,8 @@
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="2" t="s">
         <v>376</v>
       </c>
@@ -3367,8 +3373,8 @@
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="2" t="s">
         <v>377</v>
       </c>
@@ -3381,8 +3387,8 @@
     </row>
     <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="2" t="s">
         <v>378</v>
       </c>
@@ -3395,8 +3401,8 @@
     </row>
     <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="2" t="s">
         <v>379</v>
       </c>
@@ -3409,8 +3415,8 @@
     </row>
     <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="2" t="s">
         <v>380</v>
       </c>
@@ -3423,8 +3429,8 @@
     </row>
     <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="2" t="s">
         <v>381</v>
       </c>
@@ -3437,8 +3443,8 @@
     </row>
     <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="2" t="s">
         <v>382</v>
       </c>
@@ -3451,8 +3457,8 @@
     </row>
     <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="2" t="s">
         <v>383</v>
       </c>
@@ -3465,8 +3471,8 @@
     </row>
     <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="2" t="s">
         <v>384</v>
       </c>
@@ -3479,8 +3485,8 @@
     </row>
     <row r="59" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="2" t="s">
         <v>385</v>
       </c>
@@ -3493,8 +3499,8 @@
     </row>
     <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="2" t="s">
         <v>386</v>
       </c>
@@ -3507,8 +3513,8 @@
     </row>
     <row r="61" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="2" t="s">
         <v>387</v>
       </c>
@@ -3521,8 +3527,8 @@
     </row>
     <row r="62" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="2" t="s">
         <v>388</v>
       </c>
@@ -3535,8 +3541,8 @@
     </row>
     <row r="63" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="42"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="12" t="s">
         <v>389</v>
       </c>
@@ -3551,10 +3557,10 @@
       <c r="A64" s="40">
         <v>6</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="15" t="s">
@@ -3569,8 +3575,8 @@
     </row>
     <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="2" t="s">
         <v>33</v>
       </c>
@@ -3583,8 +3589,8 @@
     </row>
     <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="2" t="s">
         <v>34</v>
       </c>
@@ -3597,8 +3603,8 @@
     </row>
     <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="2" t="s">
         <v>35</v>
       </c>
@@ -3611,8 +3617,8 @@
     </row>
     <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="2" t="s">
         <v>36</v>
       </c>
@@ -3625,8 +3631,8 @@
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="35"/>
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -3639,8 +3645,8 @@
     </row>
     <row r="70" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="2" t="s">
         <v>38</v>
       </c>
@@ -3653,8 +3659,8 @@
     </row>
     <row r="71" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="2" t="s">
         <v>39</v>
       </c>
@@ -3667,8 +3673,8 @@
     </row>
     <row r="72" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="2" t="s">
         <v>40</v>
       </c>
@@ -3681,8 +3687,8 @@
     </row>
     <row r="73" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="2" t="s">
         <v>41</v>
       </c>
@@ -3695,8 +3701,8 @@
     </row>
     <row r="74" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="2" t="s">
         <v>42</v>
       </c>
@@ -3709,8 +3715,8 @@
     </row>
     <row r="75" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="2" t="s">
         <v>43</v>
       </c>
@@ -3723,8 +3729,8 @@
     </row>
     <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="2" t="s">
         <v>44</v>
       </c>
@@ -3737,8 +3743,8 @@
     </row>
     <row r="77" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="2" t="s">
         <v>45</v>
       </c>
@@ -3751,8 +3757,8 @@
     </row>
     <row r="78" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="2" t="s">
         <v>46</v>
       </c>
@@ -3765,8 +3771,8 @@
     </row>
     <row r="79" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="3" t="s">
         <v>47</v>
       </c>
@@ -3779,8 +3785,8 @@
     </row>
     <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="3" t="s">
         <v>48</v>
       </c>
@@ -3793,8 +3799,8 @@
     </row>
     <row r="81" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="3" t="s">
         <v>49</v>
       </c>
@@ -3807,8 +3813,8 @@
     </row>
     <row r="82" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="3" t="s">
         <v>50</v>
       </c>
@@ -3821,8 +3827,8 @@
     </row>
     <row r="83" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="3" t="s">
         <v>51</v>
       </c>
@@ -3835,8 +3841,8 @@
     </row>
     <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="3" t="s">
         <v>31</v>
       </c>
@@ -3849,8 +3855,8 @@
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="3" t="s">
         <v>52</v>
       </c>
@@ -3863,8 +3869,8 @@
     </row>
     <row r="86" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="35"/>
       <c r="D86" s="3" t="s">
         <v>53</v>
       </c>
@@ -3877,8 +3883,8 @@
     </row>
     <row r="87" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="3" t="s">
         <v>54</v>
       </c>
@@ -3891,8 +3897,8 @@
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="3" t="s">
         <v>55</v>
       </c>
@@ -3905,8 +3911,8 @@
     </row>
     <row r="89" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="35"/>
       <c r="D89" s="3" t="s">
         <v>56</v>
       </c>
@@ -3919,8 +3925,8 @@
     </row>
     <row r="90" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="3" t="s">
         <v>57</v>
       </c>
@@ -3933,8 +3939,8 @@
     </row>
     <row r="91" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="3" t="s">
         <v>58</v>
       </c>
@@ -3947,8 +3953,8 @@
     </row>
     <row r="92" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="3" t="s">
         <v>59</v>
       </c>
@@ -3961,8 +3967,8 @@
     </row>
     <row r="93" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="3" t="s">
         <v>60</v>
       </c>
@@ -3975,8 +3981,8 @@
     </row>
     <row r="94" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="3" t="s">
         <v>61</v>
       </c>
@@ -3989,8 +3995,8 @@
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="35"/>
       <c r="D95" s="3" t="s">
         <v>62</v>
       </c>
@@ -4003,8 +4009,8 @@
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="35"/>
       <c r="D96" s="3" t="s">
         <v>63</v>
       </c>
@@ -4017,8 +4023,8 @@
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="38"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="35"/>
       <c r="D97" s="3" t="s">
         <v>64</v>
       </c>
@@ -4031,8 +4037,8 @@
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="35"/>
       <c r="D98" s="3" t="s">
         <v>65</v>
       </c>
@@ -4045,8 +4051,8 @@
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="38"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="35"/>
       <c r="D99" s="3" t="s">
         <v>66</v>
       </c>
@@ -4059,8 +4065,8 @@
     </row>
     <row r="100" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="38"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="35"/>
       <c r="D100" s="3" t="s">
         <v>67</v>
       </c>
@@ -4073,8 +4079,8 @@
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="38"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="35"/>
       <c r="D101" s="3" t="s">
         <v>68</v>
       </c>
@@ -4087,8 +4093,8 @@
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="38"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="35"/>
       <c r="D102" s="3" t="s">
         <v>69</v>
       </c>
@@ -4101,8 +4107,8 @@
     </row>
     <row r="103" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="35"/>
       <c r="D103" s="3" t="s">
         <v>70</v>
       </c>
@@ -4115,8 +4121,8 @@
     </row>
     <row r="104" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="38"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="3" t="s">
         <v>71</v>
       </c>
@@ -4129,8 +4135,8 @@
     </row>
     <row r="105" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="35"/>
       <c r="D105" s="3" t="s">
         <v>72</v>
       </c>
@@ -4143,8 +4149,8 @@
     </row>
     <row r="106" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="35"/>
       <c r="D106" s="3" t="s">
         <v>73</v>
       </c>
@@ -4157,8 +4163,8 @@
     </row>
     <row r="107" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="35"/>
       <c r="D107" s="3" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4177,8 @@
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="3" t="s">
         <v>75</v>
       </c>
@@ -4185,8 +4191,8 @@
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="38"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="35"/>
       <c r="D109" s="3" t="s">
         <v>76</v>
       </c>
@@ -4199,8 +4205,8 @@
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="3" t="s">
         <v>77</v>
       </c>
@@ -4213,8 +4219,8 @@
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="3" t="s">
         <v>78</v>
       </c>
@@ -4227,8 +4233,8 @@
     </row>
     <row r="112" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="35"/>
       <c r="D112" s="3" t="s">
         <v>79</v>
       </c>
@@ -4241,8 +4247,8 @@
     </row>
     <row r="113" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="35"/>
       <c r="D113" s="3" t="s">
         <v>80</v>
       </c>
@@ -4255,8 +4261,8 @@
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="35"/>
       <c r="D114" s="3" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4275,8 @@
     </row>
     <row r="115" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="35"/>
       <c r="D115" s="3" t="s">
         <v>82</v>
       </c>
@@ -4283,8 +4289,8 @@
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="35"/>
       <c r="D116" s="3" t="s">
         <v>83</v>
       </c>
@@ -4297,8 +4303,8 @@
     </row>
     <row r="117" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="35"/>
       <c r="D117" s="3" t="s">
         <v>84</v>
       </c>
@@ -4311,8 +4317,8 @@
     </row>
     <row r="118" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="35"/>
       <c r="D118" s="3" t="s">
         <v>85</v>
       </c>
@@ -4325,8 +4331,8 @@
     </row>
     <row r="119" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="35"/>
       <c r="D119" s="3" t="s">
         <v>86</v>
       </c>
@@ -4339,8 +4345,8 @@
     </row>
     <row r="120" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="16" t="s">
         <v>87</v>
       </c>
@@ -4353,8 +4359,8 @@
     </row>
     <row r="121" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="35"/>
       <c r="D121" s="3" t="s">
         <v>88</v>
       </c>
@@ -4367,8 +4373,8 @@
     </row>
     <row r="122" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="35"/>
       <c r="D122" s="3" t="s">
         <v>89</v>
       </c>
@@ -4381,8 +4387,8 @@
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="35"/>
       <c r="D123" s="3" t="s">
         <v>90</v>
       </c>
@@ -4395,8 +4401,8 @@
     </row>
     <row r="124" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="3" t="s">
         <v>91</v>
       </c>
@@ -4409,8 +4415,8 @@
     </row>
     <row r="125" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="35"/>
       <c r="D125" s="5" t="s">
         <v>153</v>
       </c>
@@ -4423,8 +4429,8 @@
     </row>
     <row r="126" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="41"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="35"/>
       <c r="D126" s="3" t="s">
         <v>154</v>
       </c>
@@ -4437,8 +4443,8 @@
     </row>
     <row r="127" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="38"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="3" t="s">
         <v>155</v>
       </c>
@@ -4451,8 +4457,8 @@
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
-      <c r="B128" s="44"/>
-      <c r="C128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="35"/>
       <c r="D128" s="3" t="s">
         <v>156</v>
       </c>
@@ -4465,8 +4471,8 @@
     </row>
     <row r="129" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
-      <c r="B129" s="44"/>
-      <c r="C129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="35"/>
       <c r="D129" s="3" t="s">
         <v>157</v>
       </c>
@@ -4479,8 +4485,8 @@
     </row>
     <row r="130" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="35"/>
       <c r="D130" s="3" t="s">
         <v>158</v>
       </c>
@@ -4493,8 +4499,8 @@
     </row>
     <row r="131" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="35"/>
       <c r="D131" s="3" t="s">
         <v>159</v>
       </c>
@@ -4507,8 +4513,8 @@
     </row>
     <row r="132" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="35"/>
       <c r="D132" s="3" t="s">
         <v>160</v>
       </c>
@@ -4521,8 +4527,8 @@
     </row>
     <row r="133" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="35"/>
       <c r="D133" s="3" t="s">
         <v>161</v>
       </c>
@@ -4535,8 +4541,8 @@
     </row>
     <row r="134" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
-      <c r="B134" s="44"/>
-      <c r="C134" s="38"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="35"/>
       <c r="D134" s="3" t="s">
         <v>162</v>
       </c>
@@ -4549,8 +4555,8 @@
     </row>
     <row r="135" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
-      <c r="B135" s="44"/>
-      <c r="C135" s="38"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="35"/>
       <c r="D135" s="3" t="s">
         <v>163</v>
       </c>
@@ -4563,8 +4569,8 @@
     </row>
     <row r="136" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="38"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="35"/>
       <c r="D136" s="3" t="s">
         <v>164</v>
       </c>
@@ -4577,8 +4583,8 @@
     </row>
     <row r="137" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="35"/>
       <c r="D137" s="3" t="s">
         <v>165</v>
       </c>
@@ -4591,8 +4597,8 @@
     </row>
     <row r="138" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="35"/>
       <c r="D138" s="3" t="s">
         <v>166</v>
       </c>
@@ -4605,8 +4611,8 @@
     </row>
     <row r="139" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="41"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="35"/>
       <c r="D139" s="3" t="s">
         <v>167</v>
       </c>
@@ -4619,8 +4625,8 @@
     </row>
     <row r="140" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
-      <c r="B140" s="44"/>
-      <c r="C140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="35"/>
       <c r="D140" s="5" t="s">
         <v>168</v>
       </c>
@@ -4633,8 +4639,8 @@
     </row>
     <row r="141" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="35"/>
       <c r="D141" s="3" t="s">
         <v>169</v>
       </c>
@@ -4647,8 +4653,8 @@
     </row>
     <row r="142" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="38"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="35"/>
       <c r="D142" s="3" t="s">
         <v>170</v>
       </c>
@@ -4661,8 +4667,8 @@
     </row>
     <row r="143" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="38"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="35"/>
       <c r="D143" s="3" t="s">
         <v>171</v>
       </c>
@@ -4675,8 +4681,8 @@
     </row>
     <row r="144" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="38"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="35"/>
       <c r="D144" s="3" t="s">
         <v>172</v>
       </c>
@@ -4689,8 +4695,8 @@
     </row>
     <row r="145" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="38"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="35"/>
       <c r="D145" s="3" t="s">
         <v>173</v>
       </c>
@@ -4703,8 +4709,8 @@
     </row>
     <row r="146" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="38"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="35"/>
       <c r="D146" s="3" t="s">
         <v>174</v>
       </c>
@@ -4717,8 +4723,8 @@
     </row>
     <row r="147" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="38"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="35"/>
       <c r="D147" s="3" t="s">
         <v>175</v>
       </c>
@@ -4731,8 +4737,8 @@
     </row>
     <row r="148" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="38"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="35"/>
       <c r="D148" s="3" t="s">
         <v>176</v>
       </c>
@@ -4745,8 +4751,8 @@
     </row>
     <row r="149" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="38"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="35"/>
       <c r="D149" s="3" t="s">
         <v>177</v>
       </c>
@@ -4759,8 +4765,8 @@
     </row>
     <row r="150" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="38"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="3" t="s">
         <v>178</v>
       </c>
@@ -4773,8 +4779,8 @@
     </row>
     <row r="151" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="38"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="3" t="s">
         <v>179</v>
       </c>
@@ -4787,8 +4793,8 @@
     </row>
     <row r="152" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="41"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="38"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="35"/>
       <c r="D152" s="3" t="s">
         <v>180</v>
       </c>
@@ -4801,8 +4807,8 @@
     </row>
     <row r="153" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
-      <c r="B153" s="44"/>
-      <c r="C153" s="38"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="35"/>
       <c r="D153" s="3" t="s">
         <v>181</v>
       </c>
@@ -4815,8 +4821,8 @@
     </row>
     <row r="154" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="41"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="38"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="35"/>
       <c r="D154" s="3" t="s">
         <v>182</v>
       </c>
@@ -4829,8 +4835,8 @@
     </row>
     <row r="155" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="38"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="35"/>
       <c r="D155" s="5" t="s">
         <v>185</v>
       </c>
@@ -4843,8 +4849,8 @@
     </row>
     <row r="156" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="38"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="35"/>
       <c r="D156" s="3" t="s">
         <v>186</v>
       </c>
@@ -4857,8 +4863,8 @@
     </row>
     <row r="157" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
-      <c r="B157" s="44"/>
-      <c r="C157" s="38"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="35"/>
       <c r="D157" s="3" t="s">
         <v>187</v>
       </c>
@@ -4871,8 +4877,8 @@
     </row>
     <row r="158" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
-      <c r="B158" s="44"/>
-      <c r="C158" s="38"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="35"/>
       <c r="D158" s="3" t="s">
         <v>188</v>
       </c>
@@ -4885,8 +4891,8 @@
     </row>
     <row r="159" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
-      <c r="B159" s="44"/>
-      <c r="C159" s="38"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="35"/>
       <c r="D159" s="3" t="s">
         <v>189</v>
       </c>
@@ -4899,8 +4905,8 @@
     </row>
     <row r="160" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
-      <c r="B160" s="44"/>
-      <c r="C160" s="38"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="35"/>
       <c r="D160" s="3" t="s">
         <v>190</v>
       </c>
@@ -4913,8 +4919,8 @@
     </row>
     <row r="161" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="38"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="35"/>
       <c r="D161" s="3" t="s">
         <v>191</v>
       </c>
@@ -4927,8 +4933,8 @@
     </row>
     <row r="162" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="38"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="3" t="s">
         <v>192</v>
       </c>
@@ -4941,8 +4947,8 @@
     </row>
     <row r="163" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="42"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="39"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="36"/>
       <c r="D163" s="17" t="s">
         <v>193</v>
       </c>
@@ -4954,13 +4960,13 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="34">
+      <c r="A164" s="43">
         <v>7</v>
       </c>
-      <c r="B164" s="37" t="s">
+      <c r="B164" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="37" t="s">
+      <c r="C164" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="15" t="s">
@@ -4974,9 +4980,9 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="35"/>
-      <c r="B165" s="38"/>
-      <c r="C165" s="38"/>
+      <c r="A165" s="44"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
       <c r="D165" s="3" t="s">
         <v>332</v>
       </c>
@@ -4988,9 +4994,9 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
-      <c r="B166" s="38"/>
-      <c r="C166" s="38"/>
+      <c r="A166" s="44"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
       <c r="D166" s="3" t="s">
         <v>333</v>
       </c>
@@ -5002,9 +5008,9 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="38"/>
-      <c r="C167" s="38"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
       <c r="D167" s="3" t="s">
         <v>334</v>
       </c>
@@ -5016,9 +5022,9 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="38"/>
-      <c r="C168" s="38"/>
+      <c r="A168" s="44"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
       <c r="D168" s="3" t="s">
         <v>335</v>
       </c>
@@ -5030,9 +5036,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="38"/>
-      <c r="C169" s="38"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
       <c r="D169" s="3" t="s">
         <v>336</v>
       </c>
@@ -5044,9 +5050,9 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
-      <c r="B170" s="38"/>
-      <c r="C170" s="38"/>
+      <c r="A170" s="44"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="35"/>
       <c r="D170" s="3" t="s">
         <v>337</v>
       </c>
@@ -5058,9 +5064,9 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
-      <c r="B171" s="38"/>
-      <c r="C171" s="38"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="35"/>
       <c r="D171" s="3" t="s">
         <v>338</v>
       </c>
@@ -5072,9 +5078,9 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="38"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="35"/>
       <c r="D172" s="3" t="s">
         <v>339</v>
       </c>
@@ -5086,9 +5092,9 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
-      <c r="B173" s="38"/>
-      <c r="C173" s="38"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
       <c r="D173" s="3" t="s">
         <v>340</v>
       </c>
@@ -5100,9 +5106,9 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="35"/>
-      <c r="B174" s="38"/>
-      <c r="C174" s="38"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
       <c r="D174" s="3" t="s">
         <v>341</v>
       </c>
@@ -5114,9 +5120,9 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="35"/>
-      <c r="B175" s="38"/>
-      <c r="C175" s="38"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="3" t="s">
         <v>342</v>
       </c>
@@ -5128,9 +5134,9 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="38"/>
-      <c r="C176" s="38"/>
+      <c r="A176" s="44"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
       <c r="D176" s="3" t="s">
         <v>343</v>
       </c>
@@ -5142,9 +5148,9 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
-      <c r="B177" s="38"/>
-      <c r="C177" s="38"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
       <c r="D177" s="3" t="s">
         <v>344</v>
       </c>
@@ -5156,9 +5162,9 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="38"/>
-      <c r="C178" s="38"/>
+      <c r="A178" s="44"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
       <c r="D178" s="3" t="s">
         <v>345</v>
       </c>
@@ -5170,9 +5176,9 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="38"/>
-      <c r="C179" s="38"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
       <c r="D179" s="3" t="s">
         <v>346</v>
       </c>
@@ -5184,9 +5190,9 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="38"/>
-      <c r="C180" s="38"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="35"/>
       <c r="D180" s="3" t="s">
         <v>347</v>
       </c>
@@ -5198,9 +5204,9 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="35"/>
-      <c r="B181" s="38"/>
-      <c r="C181" s="38"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="35"/>
       <c r="D181" s="3" t="s">
         <v>348</v>
       </c>
@@ -5212,9 +5218,9 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
+      <c r="A182" s="44"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
       <c r="D182" s="3" t="s">
         <v>349</v>
       </c>
@@ -5226,9 +5232,9 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="38"/>
-      <c r="C183" s="38"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
       <c r="D183" s="3" t="s">
         <v>350</v>
       </c>
@@ -5240,9 +5246,9 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="38"/>
-      <c r="C184" s="38"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
       <c r="D184" s="3" t="s">
         <v>351</v>
       </c>
@@ -5254,9 +5260,9 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="38"/>
-      <c r="C185" s="38"/>
+      <c r="A185" s="44"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="35"/>
       <c r="D185" s="3" t="s">
         <v>352</v>
       </c>
@@ -5268,9 +5274,9 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="38"/>
-      <c r="C186" s="38"/>
+      <c r="A186" s="44"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="35"/>
       <c r="D186" s="3" t="s">
         <v>353</v>
       </c>
@@ -5282,9 +5288,9 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="35"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="38"/>
+      <c r="A187" s="44"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="35"/>
       <c r="D187" s="5" t="s">
         <v>355</v>
       </c>
@@ -5296,9 +5302,9 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="38"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="35"/>
       <c r="D188" s="3" t="s">
         <v>356</v>
       </c>
@@ -5310,9 +5316,9 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="38"/>
-      <c r="C189" s="38"/>
+      <c r="A189" s="44"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="35"/>
       <c r="D189" s="3" t="s">
         <v>357</v>
       </c>
@@ -5324,9 +5330,9 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="35"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="38"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
       <c r="D190" s="3" t="s">
         <v>358</v>
       </c>
@@ -5338,9 +5344,9 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="38"/>
-      <c r="C191" s="38"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
       <c r="D191" s="3" t="s">
         <v>359</v>
       </c>
@@ -5352,9 +5358,9 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="38"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="35"/>
       <c r="D192" s="3" t="s">
         <v>360</v>
       </c>
@@ -5366,9 +5372,9 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="35"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="38"/>
+      <c r="A193" s="44"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="35"/>
       <c r="D193" s="3" t="s">
         <v>361</v>
       </c>
@@ -5380,9 +5386,9 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="38"/>
-      <c r="C194" s="38"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="35"/>
       <c r="D194" s="3" t="s">
         <v>362</v>
       </c>
@@ -5394,9 +5400,9 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="38"/>
-      <c r="C195" s="38"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="35"/>
+      <c r="C195" s="35"/>
       <c r="D195" s="3" t="s">
         <v>363</v>
       </c>
@@ -5408,9 +5414,9 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="35"/>
-      <c r="B196" s="38"/>
-      <c r="C196" s="38"/>
+      <c r="A196" s="44"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="35"/>
       <c r="D196" s="3" t="s">
         <v>364</v>
       </c>
@@ -5422,9 +5428,9 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="38"/>
-      <c r="C197" s="38"/>
+      <c r="A197" s="44"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="35"/>
       <c r="D197" s="3" t="s">
         <v>365</v>
       </c>
@@ -5436,9 +5442,9 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="38"/>
-      <c r="C198" s="38"/>
+      <c r="A198" s="44"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="35"/>
       <c r="D198" s="3" t="s">
         <v>366</v>
       </c>
@@ -5450,9 +5456,9 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="38"/>
-      <c r="C199" s="38"/>
+      <c r="A199" s="44"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="35"/>
       <c r="D199" s="3" t="s">
         <v>367</v>
       </c>
@@ -5464,9 +5470,9 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="38"/>
-      <c r="C200" s="38"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="35"/>
       <c r="D200" s="3" t="s">
         <v>368</v>
       </c>
@@ -5478,9 +5484,9 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="35"/>
-      <c r="B201" s="38"/>
-      <c r="C201" s="38"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="35"/>
+      <c r="C201" s="35"/>
       <c r="D201" s="3" t="s">
         <v>369</v>
       </c>
@@ -5492,9 +5498,9 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="38"/>
-      <c r="C202" s="38"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="35"/>
       <c r="D202" s="3" t="s">
         <v>370</v>
       </c>
@@ -5506,9 +5512,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="38"/>
-      <c r="C203" s="38"/>
+      <c r="A203" s="44"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="35"/>
       <c r="D203" s="3" t="s">
         <v>371</v>
       </c>
@@ -5520,9 +5526,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="36"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
       <c r="D204" s="17" t="s">
         <v>372</v>
       </c>
@@ -5534,13 +5540,13 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="34">
+      <c r="A205" s="43">
         <v>8</v>
       </c>
-      <c r="B205" s="37" t="s">
+      <c r="B205" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C205" s="37" t="s">
+      <c r="C205" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="15" t="s">
@@ -5554,9 +5560,9 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="38"/>
-      <c r="C206" s="38"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="35"/>
       <c r="D206" s="2" t="s">
         <v>325</v>
       </c>
@@ -5568,9 +5574,9 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="35"/>
-      <c r="B207" s="38"/>
-      <c r="C207" s="38"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="35"/>
       <c r="D207" s="2" t="s">
         <v>326</v>
       </c>
@@ -5582,9 +5588,9 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="35"/>
-      <c r="B208" s="38"/>
-      <c r="C208" s="38"/>
+      <c r="A208" s="44"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="35"/>
       <c r="D208" s="2" t="s">
         <v>327</v>
       </c>
@@ -5596,9 +5602,9 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="35"/>
-      <c r="B209" s="38"/>
-      <c r="C209" s="38"/>
+      <c r="A209" s="44"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
       <c r="D209" s="2" t="s">
         <v>328</v>
       </c>
@@ -5610,9 +5616,9 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="35"/>
-      <c r="B210" s="38"/>
-      <c r="C210" s="38"/>
+      <c r="A210" s="44"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="35"/>
       <c r="D210" s="2" t="s">
         <v>329</v>
       </c>
@@ -5624,9 +5630,9 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="36"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="39"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="36"/>
       <c r="D211" s="12" t="s">
         <v>330</v>
       </c>
@@ -5638,13 +5644,13 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="34">
+      <c r="A212" s="43">
         <v>9</v>
       </c>
-      <c r="B212" s="37" t="s">
+      <c r="B212" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C212" s="37" t="s">
+      <c r="C212" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D212" s="15" t="s">
@@ -5658,9 +5664,9 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="35"/>
-      <c r="B213" s="38"/>
-      <c r="C213" s="38"/>
+      <c r="A213" s="44"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="35"/>
       <c r="D213" s="2" t="s">
         <v>392</v>
       </c>
@@ -5672,9 +5678,9 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="35"/>
-      <c r="B214" s="38"/>
-      <c r="C214" s="38"/>
+      <c r="A214" s="44"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="35"/>
       <c r="D214" s="2" t="s">
         <v>393</v>
       </c>
@@ -5686,9 +5692,9 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="35"/>
-      <c r="B215" s="38"/>
-      <c r="C215" s="38"/>
+      <c r="A215" s="44"/>
+      <c r="B215" s="35"/>
+      <c r="C215" s="35"/>
       <c r="D215" s="2" t="s">
         <v>394</v>
       </c>
@@ -5700,9 +5706,9 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="35"/>
-      <c r="B216" s="38"/>
-      <c r="C216" s="38"/>
+      <c r="A216" s="44"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="2" t="s">
         <v>395</v>
       </c>
@@ -5714,9 +5720,9 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="35"/>
-      <c r="B217" s="38"/>
-      <c r="C217" s="38"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="35"/>
       <c r="D217" s="2" t="s">
         <v>396</v>
       </c>
@@ -5728,9 +5734,9 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="35"/>
-      <c r="B218" s="38"/>
-      <c r="C218" s="38"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
       <c r="D218" s="2" t="s">
         <v>397</v>
       </c>
@@ -5742,9 +5748,9 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="35"/>
-      <c r="B219" s="38"/>
-      <c r="C219" s="38"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="35"/>
       <c r="D219" s="2" t="s">
         <v>398</v>
       </c>
@@ -5756,9 +5762,9 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="35"/>
-      <c r="B220" s="38"/>
-      <c r="C220" s="38"/>
+      <c r="A220" s="44"/>
+      <c r="B220" s="35"/>
+      <c r="C220" s="35"/>
       <c r="D220" s="2" t="s">
         <v>399</v>
       </c>
@@ -5770,9 +5776,9 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="35"/>
-      <c r="B221" s="38"/>
-      <c r="C221" s="38"/>
+      <c r="A221" s="44"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="35"/>
       <c r="D221" s="2" t="s">
         <v>400</v>
       </c>
@@ -5784,9 +5790,9 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="35"/>
-      <c r="B222" s="38"/>
-      <c r="C222" s="38"/>
+      <c r="A222" s="44"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="35"/>
       <c r="D222" s="2" t="s">
         <v>401</v>
       </c>
@@ -5798,9 +5804,9 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="35"/>
-      <c r="B223" s="38"/>
-      <c r="C223" s="38"/>
+      <c r="A223" s="44"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="35"/>
       <c r="D223" s="2" t="s">
         <v>402</v>
       </c>
@@ -5812,9 +5818,9 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="35"/>
-      <c r="B224" s="38"/>
-      <c r="C224" s="38"/>
+      <c r="A224" s="44"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="35"/>
       <c r="D224" s="2" t="s">
         <v>403</v>
       </c>
@@ -5826,9 +5832,9 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="35"/>
-      <c r="B225" s="38"/>
-      <c r="C225" s="38"/>
+      <c r="A225" s="44"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="35"/>
       <c r="D225" s="2" t="s">
         <v>404</v>
       </c>
@@ -5840,9 +5846,9 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="35"/>
-      <c r="B226" s="38"/>
-      <c r="C226" s="38"/>
+      <c r="A226" s="44"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="35"/>
       <c r="D226" s="2" t="s">
         <v>405</v>
       </c>
@@ -5854,9 +5860,9 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="35"/>
-      <c r="B227" s="38"/>
-      <c r="C227" s="38"/>
+      <c r="A227" s="44"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="35"/>
       <c r="D227" s="2" t="s">
         <v>406</v>
       </c>
@@ -5868,9 +5874,9 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="35"/>
-      <c r="B228" s="38"/>
-      <c r="C228" s="38"/>
+      <c r="A228" s="44"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="35"/>
       <c r="D228" s="2" t="s">
         <v>407</v>
       </c>
@@ -5882,9 +5888,9 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="35"/>
-      <c r="B229" s="38"/>
-      <c r="C229" s="38"/>
+      <c r="A229" s="44"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="35"/>
       <c r="D229" s="2" t="s">
         <v>408</v>
       </c>
@@ -5896,9 +5902,9 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="35"/>
-      <c r="B230" s="38"/>
-      <c r="C230" s="38"/>
+      <c r="A230" s="44"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="35"/>
       <c r="D230" s="2" t="s">
         <v>409</v>
       </c>
@@ -5910,9 +5916,9 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="35"/>
-      <c r="B231" s="38"/>
-      <c r="C231" s="38"/>
+      <c r="A231" s="44"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="2" t="s">
         <v>410</v>
       </c>
@@ -5924,9 +5930,9 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="35"/>
-      <c r="B232" s="38"/>
-      <c r="C232" s="38"/>
+      <c r="A232" s="44"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
       <c r="D232" s="2" t="s">
         <v>411</v>
       </c>
@@ -5938,9 +5944,9 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="35"/>
-      <c r="B233" s="38"/>
-      <c r="C233" s="38"/>
+      <c r="A233" s="44"/>
+      <c r="B233" s="35"/>
+      <c r="C233" s="35"/>
       <c r="D233" s="2" t="s">
         <v>412</v>
       </c>
@@ -5952,9 +5958,9 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="35"/>
-      <c r="B234" s="38"/>
-      <c r="C234" s="38"/>
+      <c r="A234" s="44"/>
+      <c r="B234" s="35"/>
+      <c r="C234" s="35"/>
       <c r="D234" s="2" t="s">
         <v>413</v>
       </c>
@@ -5966,9 +5972,9 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="35"/>
-      <c r="B235" s="38"/>
-      <c r="C235" s="38"/>
+      <c r="A235" s="44"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="2" t="s">
         <v>414</v>
       </c>
@@ -5980,9 +5986,9 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="35"/>
-      <c r="B236" s="38"/>
-      <c r="C236" s="38"/>
+      <c r="A236" s="44"/>
+      <c r="B236" s="35"/>
+      <c r="C236" s="35"/>
       <c r="D236" s="2" t="s">
         <v>415</v>
       </c>
@@ -5994,9 +6000,9 @@
       </c>
     </row>
     <row r="237" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="35"/>
-      <c r="B237" s="38"/>
-      <c r="C237" s="38"/>
+      <c r="A237" s="44"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="35"/>
       <c r="D237" s="2" t="s">
         <v>416</v>
       </c>
@@ -6008,9 +6014,9 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="38"/>
+      <c r="A238" s="44"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="35"/>
       <c r="D238" s="2" t="s">
         <v>417</v>
       </c>
@@ -6022,9 +6028,9 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="35"/>
-      <c r="B239" s="38"/>
-      <c r="C239" s="38"/>
+      <c r="A239" s="44"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
       <c r="D239" s="2" t="s">
         <v>418</v>
       </c>
@@ -6036,9 +6042,9 @@
       </c>
     </row>
     <row r="240" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="36"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="39"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="36"/>
+      <c r="C240" s="36"/>
       <c r="D240" s="12" t="s">
         <v>419</v>
       </c>
@@ -6050,13 +6056,13 @@
       </c>
     </row>
     <row r="241" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="34">
+      <c r="A241" s="43">
         <v>10</v>
       </c>
-      <c r="B241" s="37" t="s">
+      <c r="B241" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C241" s="37" t="s">
+      <c r="C241" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D241" s="15" t="s">
@@ -6070,9 +6076,9 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="35"/>
-      <c r="B242" s="38"/>
-      <c r="C242" s="38"/>
+      <c r="A242" s="44"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
       <c r="D242" s="2" t="s">
         <v>450</v>
       </c>
@@ -6084,9 +6090,9 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="35"/>
-      <c r="B243" s="38"/>
-      <c r="C243" s="38"/>
+      <c r="A243" s="44"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
       <c r="D243" s="2" t="s">
         <v>451</v>
       </c>
@@ -6098,9 +6104,9 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="35"/>
-      <c r="B244" s="38"/>
-      <c r="C244" s="38"/>
+      <c r="A244" s="44"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
       <c r="D244" s="2" t="s">
         <v>452</v>
       </c>
@@ -6112,9 +6118,9 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="35"/>
-      <c r="B245" s="38"/>
-      <c r="C245" s="38"/>
+      <c r="A245" s="44"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="35"/>
       <c r="D245" s="2" t="s">
         <v>453</v>
       </c>
@@ -6126,9 +6132,9 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="35"/>
-      <c r="B246" s="38"/>
-      <c r="C246" s="38"/>
+      <c r="A246" s="44"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="35"/>
       <c r="D246" s="2" t="s">
         <v>454</v>
       </c>
@@ -6140,9 +6146,9 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="35"/>
-      <c r="B247" s="38"/>
-      <c r="C247" s="38"/>
+      <c r="A247" s="44"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="35"/>
       <c r="D247" s="2" t="s">
         <v>455</v>
       </c>
@@ -6154,9 +6160,9 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="35"/>
-      <c r="B248" s="38"/>
-      <c r="C248" s="38"/>
+      <c r="A248" s="44"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="35"/>
       <c r="D248" s="2" t="s">
         <v>456</v>
       </c>
@@ -6168,9 +6174,9 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="35"/>
-      <c r="B249" s="38"/>
-      <c r="C249" s="38"/>
+      <c r="A249" s="44"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
       <c r="D249" s="5" t="s">
         <v>465</v>
       </c>
@@ -6182,9 +6188,9 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="35"/>
-      <c r="B250" s="38"/>
-      <c r="C250" s="38"/>
+      <c r="A250" s="44"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="35"/>
       <c r="D250" s="2" t="s">
         <v>466</v>
       </c>
@@ -6196,9 +6202,9 @@
       </c>
     </row>
     <row r="251" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="35"/>
-      <c r="B251" s="38"/>
-      <c r="C251" s="38"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="35"/>
       <c r="D251" s="2" t="s">
         <v>467</v>
       </c>
@@ -6210,9 +6216,9 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="35"/>
-      <c r="B252" s="38"/>
-      <c r="C252" s="38"/>
+      <c r="A252" s="44"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="35"/>
       <c r="D252" s="2" t="s">
         <v>468</v>
       </c>
@@ -6224,9 +6230,9 @@
       </c>
     </row>
     <row r="253" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="35"/>
-      <c r="B253" s="38"/>
-      <c r="C253" s="38"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
       <c r="D253" s="2" t="s">
         <v>469</v>
       </c>
@@ -6238,9 +6244,9 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="35"/>
-      <c r="B254" s="38"/>
-      <c r="C254" s="38"/>
+      <c r="A254" s="44"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
       <c r="D254" s="2" t="s">
         <v>470</v>
       </c>
@@ -6252,9 +6258,9 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="35"/>
-      <c r="B255" s="38"/>
-      <c r="C255" s="38"/>
+      <c r="A255" s="44"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="35"/>
       <c r="D255" s="2" t="s">
         <v>471</v>
       </c>
@@ -6266,9 +6272,9 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="35"/>
-      <c r="B256" s="38"/>
-      <c r="C256" s="38"/>
+      <c r="A256" s="44"/>
+      <c r="B256" s="35"/>
+      <c r="C256" s="35"/>
       <c r="D256" s="2" t="s">
         <v>472</v>
       </c>
@@ -6280,9 +6286,9 @@
       </c>
     </row>
     <row r="257" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="35"/>
-      <c r="B257" s="38"/>
-      <c r="C257" s="38"/>
+      <c r="A257" s="44"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
       <c r="D257" s="2" t="s">
         <v>473</v>
       </c>
@@ -6294,9 +6300,9 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="36"/>
-      <c r="B258" s="39"/>
-      <c r="C258" s="39"/>
+      <c r="A258" s="45"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="36"/>
       <c r="D258" s="12" t="s">
         <v>474</v>
       </c>
@@ -6308,13 +6314,13 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="34">
+      <c r="A259" s="43">
         <v>11</v>
       </c>
-      <c r="B259" s="37" t="s">
+      <c r="B259" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C259" s="37" t="s">
+      <c r="C259" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D259" s="15" t="s">
@@ -6328,9 +6334,9 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="35"/>
-      <c r="B260" s="38"/>
-      <c r="C260" s="38"/>
+      <c r="A260" s="44"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="35"/>
       <c r="D260" s="2" t="s">
         <v>486</v>
       </c>
@@ -6342,9 +6348,9 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="35"/>
-      <c r="B261" s="38"/>
-      <c r="C261" s="38"/>
+      <c r="A261" s="44"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="2" t="s">
         <v>487</v>
       </c>
@@ -6356,9 +6362,9 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="35"/>
-      <c r="B262" s="38"/>
-      <c r="C262" s="38"/>
+      <c r="A262" s="44"/>
+      <c r="B262" s="35"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="2" t="s">
         <v>488</v>
       </c>
@@ -6370,9 +6376,9 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="35"/>
-      <c r="B263" s="38"/>
-      <c r="C263" s="38"/>
+      <c r="A263" s="44"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
       <c r="D263" s="2" t="s">
         <v>489</v>
       </c>
@@ -6384,9 +6390,9 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="35"/>
-      <c r="B264" s="38"/>
-      <c r="C264" s="38"/>
+      <c r="A264" s="44"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
       <c r="D264" s="2" t="s">
         <v>490</v>
       </c>
@@ -6398,9 +6404,9 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="35"/>
-      <c r="B265" s="38"/>
-      <c r="C265" s="38"/>
+      <c r="A265" s="44"/>
+      <c r="B265" s="35"/>
+      <c r="C265" s="35"/>
       <c r="D265" s="2" t="s">
         <v>491</v>
       </c>
@@ -6412,9 +6418,9 @@
       </c>
     </row>
     <row r="266" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="35"/>
-      <c r="B266" s="38"/>
-      <c r="C266" s="38"/>
+      <c r="A266" s="44"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
       <c r="D266" s="2" t="s">
         <v>492</v>
       </c>
@@ -6426,9 +6432,9 @@
       </c>
     </row>
     <row r="267" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="35"/>
-      <c r="B267" s="38"/>
-      <c r="C267" s="38"/>
+      <c r="A267" s="44"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
       <c r="D267" s="2" t="s">
         <v>493</v>
       </c>
@@ -6440,9 +6446,9 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="35"/>
-      <c r="B268" s="38"/>
-      <c r="C268" s="38"/>
+      <c r="A268" s="44"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
       <c r="D268" s="2" t="s">
         <v>494</v>
       </c>
@@ -6454,9 +6460,9 @@
       </c>
     </row>
     <row r="269" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="35"/>
-      <c r="B269" s="38"/>
-      <c r="C269" s="38"/>
+      <c r="A269" s="44"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
       <c r="D269" s="2" t="s">
         <v>495</v>
       </c>
@@ -6468,9 +6474,9 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="35"/>
-      <c r="B270" s="38"/>
-      <c r="C270" s="38"/>
+      <c r="A270" s="44"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
       <c r="D270" s="2" t="s">
         <v>496</v>
       </c>
@@ -6482,9 +6488,9 @@
       </c>
     </row>
     <row r="271" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="35"/>
-      <c r="B271" s="38"/>
-      <c r="C271" s="38"/>
+      <c r="A271" s="44"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
       <c r="D271" s="2" t="s">
         <v>497</v>
       </c>
@@ -6496,9 +6502,9 @@
       </c>
     </row>
     <row r="272" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="35"/>
-      <c r="B272" s="38"/>
-      <c r="C272" s="38"/>
+      <c r="A272" s="44"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
       <c r="D272" s="2" t="s">
         <v>498</v>
       </c>
@@ -6510,9 +6516,9 @@
       </c>
     </row>
     <row r="273" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="35"/>
-      <c r="B273" s="38"/>
-      <c r="C273" s="38"/>
+      <c r="A273" s="44"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
       <c r="D273" s="2" t="s">
         <v>499</v>
       </c>
@@ -6524,9 +6530,9 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="35"/>
-      <c r="B274" s="38"/>
-      <c r="C274" s="38"/>
+      <c r="A274" s="44"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
       <c r="D274" s="2" t="s">
         <v>500</v>
       </c>
@@ -6538,9 +6544,9 @@
       </c>
     </row>
     <row r="275" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="35"/>
-      <c r="B275" s="38"/>
-      <c r="C275" s="38"/>
+      <c r="A275" s="44"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
       <c r="D275" s="2" t="s">
         <v>501</v>
       </c>
@@ -6552,9 +6558,9 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="36"/>
-      <c r="B276" s="39"/>
-      <c r="C276" s="39"/>
+      <c r="A276" s="45"/>
+      <c r="B276" s="36"/>
+      <c r="C276" s="36"/>
       <c r="D276" s="12" t="s">
         <v>502</v>
       </c>
@@ -6566,13 +6572,13 @@
       </c>
     </row>
     <row r="277" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="34">
+      <c r="A277" s="43">
         <v>12</v>
       </c>
-      <c r="B277" s="37" t="s">
+      <c r="B277" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C277" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D277" s="15" t="s">
@@ -6586,9 +6592,9 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="35"/>
-      <c r="B278" s="38"/>
-      <c r="C278" s="38"/>
+      <c r="A278" s="44"/>
+      <c r="B278" s="35"/>
+      <c r="C278" s="35"/>
       <c r="D278" s="2" t="s">
         <v>524</v>
       </c>
@@ -6600,9 +6606,9 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="36"/>
-      <c r="B279" s="39"/>
-      <c r="C279" s="39"/>
+      <c r="A279" s="45"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="36"/>
       <c r="D279" s="12" t="s">
         <v>525</v>
       </c>
@@ -6614,13 +6620,13 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="34">
+      <c r="A280" s="43">
         <v>13</v>
       </c>
-      <c r="B280" s="37" t="s">
+      <c r="B280" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C280" s="37" t="s">
+      <c r="C280" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D280" s="15" t="s">
@@ -6634,9 +6640,9 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="35"/>
-      <c r="B281" s="38"/>
-      <c r="C281" s="38"/>
+      <c r="A281" s="44"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="35"/>
       <c r="D281" s="2" t="s">
         <v>528</v>
       </c>
@@ -6648,9 +6654,9 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="35"/>
-      <c r="B282" s="38"/>
-      <c r="C282" s="38"/>
+      <c r="A282" s="44"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="35"/>
       <c r="D282" s="2" t="s">
         <v>529</v>
       </c>
@@ -6662,9 +6668,9 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="35"/>
-      <c r="B283" s="38"/>
-      <c r="C283" s="38"/>
+      <c r="A283" s="44"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="35"/>
       <c r="D283" s="2" t="s">
         <v>530</v>
       </c>
@@ -6676,9 +6682,9 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="35"/>
-      <c r="B284" s="38"/>
-      <c r="C284" s="38"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="35"/>
       <c r="D284" s="2" t="s">
         <v>531</v>
       </c>
@@ -6690,9 +6696,9 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="35"/>
-      <c r="B285" s="38"/>
-      <c r="C285" s="38"/>
+      <c r="A285" s="44"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="35"/>
       <c r="D285" s="2" t="s">
         <v>532</v>
       </c>
@@ -6704,9 +6710,9 @@
       </c>
     </row>
     <row r="286" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="35"/>
-      <c r="B286" s="38"/>
-      <c r="C286" s="38"/>
+      <c r="A286" s="44"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="35"/>
       <c r="D286" s="2" t="s">
         <v>533</v>
       </c>
@@ -6718,9 +6724,9 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="35"/>
-      <c r="B287" s="38"/>
-      <c r="C287" s="38"/>
+      <c r="A287" s="44"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="35"/>
       <c r="D287" s="2" t="s">
         <v>534</v>
       </c>
@@ -6732,9 +6738,9 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="35"/>
-      <c r="B288" s="38"/>
-      <c r="C288" s="38"/>
+      <c r="A288" s="44"/>
+      <c r="B288" s="35"/>
+      <c r="C288" s="35"/>
       <c r="D288" s="2" t="s">
         <v>535</v>
       </c>
@@ -6746,9 +6752,9 @@
       </c>
     </row>
     <row r="289" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="35"/>
-      <c r="B289" s="38"/>
-      <c r="C289" s="38"/>
+      <c r="A289" s="44"/>
+      <c r="B289" s="35"/>
+      <c r="C289" s="35"/>
       <c r="D289" s="2" t="s">
         <v>536</v>
       </c>
@@ -6760,9 +6766,9 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="35"/>
-      <c r="B290" s="38"/>
-      <c r="C290" s="38"/>
+      <c r="A290" s="44"/>
+      <c r="B290" s="35"/>
+      <c r="C290" s="35"/>
       <c r="D290" s="2" t="s">
         <v>537</v>
       </c>
@@ -6774,9 +6780,9 @@
       </c>
     </row>
     <row r="291" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="35"/>
-      <c r="B291" s="38"/>
-      <c r="C291" s="38"/>
+      <c r="A291" s="44"/>
+      <c r="B291" s="35"/>
+      <c r="C291" s="35"/>
       <c r="D291" s="2" t="s">
         <v>538</v>
       </c>
@@ -6788,9 +6794,9 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="35"/>
-      <c r="B292" s="38"/>
-      <c r="C292" s="38"/>
+      <c r="A292" s="44"/>
+      <c r="B292" s="35"/>
+      <c r="C292" s="35"/>
       <c r="D292" s="2" t="s">
         <v>539</v>
       </c>
@@ -6802,9 +6808,9 @@
       </c>
     </row>
     <row r="293" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="35"/>
-      <c r="B293" s="38"/>
-      <c r="C293" s="38"/>
+      <c r="A293" s="44"/>
+      <c r="B293" s="35"/>
+      <c r="C293" s="35"/>
       <c r="D293" s="2" t="s">
         <v>540</v>
       </c>
@@ -6816,9 +6822,9 @@
       </c>
     </row>
     <row r="294" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="35"/>
-      <c r="B294" s="38"/>
-      <c r="C294" s="38"/>
+      <c r="A294" s="44"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="35"/>
       <c r="D294" s="2" t="s">
         <v>541</v>
       </c>
@@ -6830,9 +6836,9 @@
       </c>
     </row>
     <row r="295" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="35"/>
-      <c r="B295" s="38"/>
-      <c r="C295" s="38"/>
+      <c r="A295" s="44"/>
+      <c r="B295" s="35"/>
+      <c r="C295" s="35"/>
       <c r="D295" s="2" t="s">
         <v>542</v>
       </c>
@@ -6844,9 +6850,9 @@
       </c>
     </row>
     <row r="296" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="35"/>
-      <c r="B296" s="38"/>
-      <c r="C296" s="38"/>
+      <c r="A296" s="44"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="35"/>
       <c r="D296" s="2" t="s">
         <v>543</v>
       </c>
@@ -6858,9 +6864,9 @@
       </c>
     </row>
     <row r="297" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="35"/>
-      <c r="B297" s="38"/>
-      <c r="C297" s="38"/>
+      <c r="A297" s="44"/>
+      <c r="B297" s="35"/>
+      <c r="C297" s="35"/>
       <c r="D297" s="2" t="s">
         <v>544</v>
       </c>
@@ -6872,9 +6878,9 @@
       </c>
     </row>
     <row r="298" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="35"/>
-      <c r="B298" s="38"/>
-      <c r="C298" s="38"/>
+      <c r="A298" s="44"/>
+      <c r="B298" s="35"/>
+      <c r="C298" s="35"/>
       <c r="D298" s="2" t="s">
         <v>545</v>
       </c>
@@ -6886,9 +6892,9 @@
       </c>
     </row>
     <row r="299" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="35"/>
-      <c r="B299" s="38"/>
-      <c r="C299" s="38"/>
+      <c r="A299" s="44"/>
+      <c r="B299" s="35"/>
+      <c r="C299" s="35"/>
       <c r="D299" s="2" t="s">
         <v>546</v>
       </c>
@@ -6900,9 +6906,9 @@
       </c>
     </row>
     <row r="300" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="35"/>
-      <c r="B300" s="38"/>
-      <c r="C300" s="38"/>
+      <c r="A300" s="44"/>
+      <c r="B300" s="35"/>
+      <c r="C300" s="35"/>
       <c r="D300" s="5" t="s">
         <v>548</v>
       </c>
@@ -6914,9 +6920,9 @@
       </c>
     </row>
     <row r="301" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="35"/>
-      <c r="B301" s="38"/>
-      <c r="C301" s="38"/>
+      <c r="A301" s="44"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="35"/>
       <c r="D301" s="2" t="s">
         <v>549</v>
       </c>
@@ -6928,9 +6934,9 @@
       </c>
     </row>
     <row r="302" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="35"/>
-      <c r="B302" s="38"/>
-      <c r="C302" s="38"/>
+      <c r="A302" s="44"/>
+      <c r="B302" s="35"/>
+      <c r="C302" s="35"/>
       <c r="D302" s="2" t="s">
         <v>550</v>
       </c>
@@ -6942,9 +6948,9 @@
       </c>
     </row>
     <row r="303" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="35"/>
-      <c r="B303" s="38"/>
-      <c r="C303" s="38"/>
+      <c r="A303" s="44"/>
+      <c r="B303" s="35"/>
+      <c r="C303" s="35"/>
       <c r="D303" s="2" t="s">
         <v>551</v>
       </c>
@@ -6956,9 +6962,9 @@
       </c>
     </row>
     <row r="304" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="35"/>
-      <c r="B304" s="38"/>
-      <c r="C304" s="38"/>
+      <c r="A304" s="44"/>
+      <c r="B304" s="35"/>
+      <c r="C304" s="35"/>
       <c r="D304" s="2" t="s">
         <v>552</v>
       </c>
@@ -6970,9 +6976,9 @@
       </c>
     </row>
     <row r="305" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="35"/>
-      <c r="B305" s="38"/>
-      <c r="C305" s="38"/>
+      <c r="A305" s="44"/>
+      <c r="B305" s="35"/>
+      <c r="C305" s="35"/>
       <c r="D305" s="2" t="s">
         <v>553</v>
       </c>
@@ -6984,9 +6990,9 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="35"/>
-      <c r="B306" s="38"/>
-      <c r="C306" s="38"/>
+      <c r="A306" s="44"/>
+      <c r="B306" s="35"/>
+      <c r="C306" s="35"/>
       <c r="D306" s="2" t="s">
         <v>554</v>
       </c>
@@ -6998,9 +7004,9 @@
       </c>
     </row>
     <row r="307" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="35"/>
-      <c r="B307" s="38"/>
-      <c r="C307" s="38"/>
+      <c r="A307" s="44"/>
+      <c r="B307" s="35"/>
+      <c r="C307" s="35"/>
       <c r="D307" s="2" t="s">
         <v>555</v>
       </c>
@@ -7012,9 +7018,9 @@
       </c>
     </row>
     <row r="308" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="35"/>
-      <c r="B308" s="38"/>
-      <c r="C308" s="38"/>
+      <c r="A308" s="44"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="35"/>
       <c r="D308" s="2" t="s">
         <v>556</v>
       </c>
@@ -7026,9 +7032,9 @@
       </c>
     </row>
     <row r="309" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="35"/>
-      <c r="B309" s="38"/>
-      <c r="C309" s="38"/>
+      <c r="A309" s="44"/>
+      <c r="B309" s="35"/>
+      <c r="C309" s="35"/>
       <c r="D309" s="2" t="s">
         <v>557</v>
       </c>
@@ -7040,9 +7046,9 @@
       </c>
     </row>
     <row r="310" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="35"/>
-      <c r="B310" s="38"/>
-      <c r="C310" s="38"/>
+      <c r="A310" s="44"/>
+      <c r="B310" s="35"/>
+      <c r="C310" s="35"/>
       <c r="D310" s="2" t="s">
         <v>558</v>
       </c>
@@ -7054,9 +7060,9 @@
       </c>
     </row>
     <row r="311" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="35"/>
-      <c r="B311" s="38"/>
-      <c r="C311" s="38"/>
+      <c r="A311" s="44"/>
+      <c r="B311" s="35"/>
+      <c r="C311" s="35"/>
       <c r="D311" s="2" t="s">
         <v>559</v>
       </c>
@@ -7068,9 +7074,9 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="35"/>
-      <c r="B312" s="38"/>
-      <c r="C312" s="38"/>
+      <c r="A312" s="44"/>
+      <c r="B312" s="35"/>
+      <c r="C312" s="35"/>
       <c r="D312" s="2" t="s">
         <v>560</v>
       </c>
@@ -7082,9 +7088,9 @@
       </c>
     </row>
     <row r="313" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="35"/>
-      <c r="B313" s="38"/>
-      <c r="C313" s="38"/>
+      <c r="A313" s="44"/>
+      <c r="B313" s="35"/>
+      <c r="C313" s="35"/>
       <c r="D313" s="2" t="s">
         <v>561</v>
       </c>
@@ -7096,9 +7102,9 @@
       </c>
     </row>
     <row r="314" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="35"/>
-      <c r="B314" s="38"/>
-      <c r="C314" s="38"/>
+      <c r="A314" s="44"/>
+      <c r="B314" s="35"/>
+      <c r="C314" s="35"/>
       <c r="D314" s="2" t="s">
         <v>562</v>
       </c>
@@ -7110,9 +7116,9 @@
       </c>
     </row>
     <row r="315" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="35"/>
-      <c r="B315" s="38"/>
-      <c r="C315" s="38"/>
+      <c r="A315" s="44"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="35"/>
       <c r="D315" s="2" t="s">
         <v>563</v>
       </c>
@@ -7124,9 +7130,9 @@
       </c>
     </row>
     <row r="316" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="36"/>
-      <c r="B316" s="39"/>
-      <c r="C316" s="39"/>
+      <c r="A316" s="45"/>
+      <c r="B316" s="36"/>
+      <c r="C316" s="36"/>
       <c r="D316" s="12" t="s">
         <v>564</v>
       </c>
@@ -7138,13 +7144,13 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="34">
+      <c r="A317" s="43">
         <v>14</v>
       </c>
-      <c r="B317" s="37" t="s">
+      <c r="B317" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D317" s="15" t="s">
@@ -7158,9 +7164,9 @@
       </c>
     </row>
     <row r="318" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="35"/>
-      <c r="B318" s="38"/>
-      <c r="C318" s="38"/>
+      <c r="A318" s="44"/>
+      <c r="B318" s="35"/>
+      <c r="C318" s="35"/>
       <c r="D318" s="2" t="s">
         <v>505</v>
       </c>
@@ -7172,9 +7178,9 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="35"/>
-      <c r="B319" s="38"/>
-      <c r="C319" s="38"/>
+      <c r="A319" s="44"/>
+      <c r="B319" s="35"/>
+      <c r="C319" s="35"/>
       <c r="D319" s="2" t="s">
         <v>506</v>
       </c>
@@ -7186,9 +7192,9 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="35"/>
-      <c r="B320" s="38"/>
-      <c r="C320" s="38"/>
+      <c r="A320" s="44"/>
+      <c r="B320" s="35"/>
+      <c r="C320" s="35"/>
       <c r="D320" s="2" t="s">
         <v>507</v>
       </c>
@@ -7200,9 +7206,9 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="35"/>
-      <c r="B321" s="38"/>
-      <c r="C321" s="38"/>
+      <c r="A321" s="44"/>
+      <c r="B321" s="35"/>
+      <c r="C321" s="35"/>
       <c r="D321" s="2" t="s">
         <v>508</v>
       </c>
@@ -7214,9 +7220,9 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="35"/>
-      <c r="B322" s="38"/>
-      <c r="C322" s="38"/>
+      <c r="A322" s="44"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="35"/>
       <c r="D322" s="2" t="s">
         <v>509</v>
       </c>
@@ -7228,9 +7234,9 @@
       </c>
     </row>
     <row r="323" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="35"/>
-      <c r="B323" s="38"/>
-      <c r="C323" s="38"/>
+      <c r="A323" s="44"/>
+      <c r="B323" s="35"/>
+      <c r="C323" s="35"/>
       <c r="D323" s="2" t="s">
         <v>510</v>
       </c>
@@ -7242,9 +7248,9 @@
       </c>
     </row>
     <row r="324" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="35"/>
-      <c r="B324" s="38"/>
-      <c r="C324" s="38"/>
+      <c r="A324" s="44"/>
+      <c r="B324" s="35"/>
+      <c r="C324" s="35"/>
       <c r="D324" s="2" t="s">
         <v>511</v>
       </c>
@@ -7256,9 +7262,9 @@
       </c>
     </row>
     <row r="325" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="35"/>
-      <c r="B325" s="38"/>
-      <c r="C325" s="38"/>
+      <c r="A325" s="44"/>
+      <c r="B325" s="35"/>
+      <c r="C325" s="35"/>
       <c r="D325" s="2" t="s">
         <v>512</v>
       </c>
@@ -7270,9 +7276,9 @@
       </c>
     </row>
     <row r="326" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="35"/>
-      <c r="B326" s="38"/>
-      <c r="C326" s="38"/>
+      <c r="A326" s="44"/>
+      <c r="B326" s="35"/>
+      <c r="C326" s="35"/>
       <c r="D326" s="2" t="s">
         <v>513</v>
       </c>
@@ -7284,9 +7290,9 @@
       </c>
     </row>
     <row r="327" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="35"/>
-      <c r="B327" s="38"/>
-      <c r="C327" s="38"/>
+      <c r="A327" s="44"/>
+      <c r="B327" s="35"/>
+      <c r="C327" s="35"/>
       <c r="D327" s="2" t="s">
         <v>514</v>
       </c>
@@ -7298,9 +7304,9 @@
       </c>
     </row>
     <row r="328" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="35"/>
-      <c r="B328" s="38"/>
-      <c r="C328" s="38"/>
+      <c r="A328" s="44"/>
+      <c r="B328" s="35"/>
+      <c r="C328" s="35"/>
       <c r="D328" s="2" t="s">
         <v>515</v>
       </c>
@@ -7312,9 +7318,9 @@
       </c>
     </row>
     <row r="329" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="35"/>
-      <c r="B329" s="38"/>
-      <c r="C329" s="38"/>
+      <c r="A329" s="44"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="35"/>
       <c r="D329" s="2" t="s">
         <v>516</v>
       </c>
@@ -7326,9 +7332,9 @@
       </c>
     </row>
     <row r="330" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="35"/>
-      <c r="B330" s="38"/>
-      <c r="C330" s="38"/>
+      <c r="A330" s="44"/>
+      <c r="B330" s="35"/>
+      <c r="C330" s="35"/>
       <c r="D330" s="2" t="s">
         <v>517</v>
       </c>
@@ -7340,9 +7346,9 @@
       </c>
     </row>
     <row r="331" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="35"/>
-      <c r="B331" s="38"/>
-      <c r="C331" s="38"/>
+      <c r="A331" s="44"/>
+      <c r="B331" s="35"/>
+      <c r="C331" s="35"/>
       <c r="D331" s="2" t="s">
         <v>518</v>
       </c>
@@ -7354,9 +7360,9 @@
       </c>
     </row>
     <row r="332" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="35"/>
-      <c r="B332" s="38"/>
-      <c r="C332" s="38"/>
+      <c r="A332" s="44"/>
+      <c r="B332" s="35"/>
+      <c r="C332" s="35"/>
       <c r="D332" s="2" t="s">
         <v>519</v>
       </c>
@@ -7368,9 +7374,9 @@
       </c>
     </row>
     <row r="333" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="36"/>
-      <c r="B333" s="39"/>
-      <c r="C333" s="39"/>
+      <c r="A333" s="45"/>
+      <c r="B333" s="36"/>
+      <c r="C333" s="36"/>
       <c r="D333" s="12" t="s">
         <v>520</v>
       </c>
@@ -7382,13 +7388,13 @@
       </c>
     </row>
     <row r="334" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="34">
+      <c r="A334" s="43">
         <v>15</v>
       </c>
-      <c r="B334" s="37" t="s">
+      <c r="B334" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C334" s="37" t="s">
+      <c r="C334" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D334" s="15" t="s">
@@ -7402,9 +7408,9 @@
       </c>
     </row>
     <row r="335" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="35"/>
-      <c r="B335" s="38"/>
-      <c r="C335" s="38"/>
+      <c r="A335" s="44"/>
+      <c r="B335" s="35"/>
+      <c r="C335" s="35"/>
       <c r="D335" s="2" t="s">
         <v>586</v>
       </c>
@@ -7416,9 +7422,9 @@
       </c>
     </row>
     <row r="336" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="35"/>
-      <c r="B336" s="38"/>
-      <c r="C336" s="38"/>
+      <c r="A336" s="44"/>
+      <c r="B336" s="35"/>
+      <c r="C336" s="35"/>
       <c r="D336" s="2" t="s">
         <v>587</v>
       </c>
@@ -7430,9 +7436,9 @@
       </c>
     </row>
     <row r="337" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="35"/>
-      <c r="B337" s="38"/>
-      <c r="C337" s="38"/>
+      <c r="A337" s="44"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="35"/>
       <c r="D337" s="2" t="s">
         <v>588</v>
       </c>
@@ -7444,9 +7450,9 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="35"/>
-      <c r="B338" s="38"/>
-      <c r="C338" s="38"/>
+      <c r="A338" s="44"/>
+      <c r="B338" s="35"/>
+      <c r="C338" s="35"/>
       <c r="D338" s="2" t="s">
         <v>589</v>
       </c>
@@ -7458,9 +7464,9 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="35"/>
-      <c r="B339" s="38"/>
-      <c r="C339" s="38"/>
+      <c r="A339" s="44"/>
+      <c r="B339" s="35"/>
+      <c r="C339" s="35"/>
       <c r="D339" s="2" t="s">
         <v>590</v>
       </c>
@@ -7472,9 +7478,9 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="35"/>
-      <c r="B340" s="38"/>
-      <c r="C340" s="38"/>
+      <c r="A340" s="44"/>
+      <c r="B340" s="35"/>
+      <c r="C340" s="35"/>
       <c r="D340" s="2" t="s">
         <v>591</v>
       </c>
@@ -7486,9 +7492,9 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="35"/>
-      <c r="B341" s="38"/>
-      <c r="C341" s="38"/>
+      <c r="A341" s="44"/>
+      <c r="B341" s="35"/>
+      <c r="C341" s="35"/>
       <c r="D341" s="2" t="s">
         <v>592</v>
       </c>
@@ -7500,9 +7506,9 @@
       </c>
     </row>
     <row r="342" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="35"/>
-      <c r="B342" s="38"/>
-      <c r="C342" s="38"/>
+      <c r="A342" s="44"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="35"/>
       <c r="D342" s="2" t="s">
         <v>593</v>
       </c>
@@ -7514,9 +7520,9 @@
       </c>
     </row>
     <row r="343" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="35"/>
-      <c r="B343" s="38"/>
-      <c r="C343" s="38"/>
+      <c r="A343" s="44"/>
+      <c r="B343" s="35"/>
+      <c r="C343" s="35"/>
       <c r="D343" s="2" t="s">
         <v>594</v>
       </c>
@@ -7528,9 +7534,9 @@
       </c>
     </row>
     <row r="344" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="35"/>
-      <c r="B344" s="38"/>
-      <c r="C344" s="38"/>
+      <c r="A344" s="44"/>
+      <c r="B344" s="35"/>
+      <c r="C344" s="35"/>
       <c r="D344" s="2" t="s">
         <v>580</v>
       </c>
@@ -7542,9 +7548,9 @@
       </c>
     </row>
     <row r="345" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="35"/>
-      <c r="B345" s="38"/>
-      <c r="C345" s="38"/>
+      <c r="A345" s="44"/>
+      <c r="B345" s="35"/>
+      <c r="C345" s="35"/>
       <c r="D345" s="2" t="s">
         <v>581</v>
       </c>
@@ -7556,9 +7562,9 @@
       </c>
     </row>
     <row r="346" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="35"/>
-      <c r="B346" s="38"/>
-      <c r="C346" s="38"/>
+      <c r="A346" s="44"/>
+      <c r="B346" s="35"/>
+      <c r="C346" s="35"/>
       <c r="D346" s="2" t="s">
         <v>582</v>
       </c>
@@ -7570,9 +7576,9 @@
       </c>
     </row>
     <row r="347" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="35"/>
-      <c r="B347" s="38"/>
-      <c r="C347" s="38"/>
+      <c r="A347" s="44"/>
+      <c r="B347" s="35"/>
+      <c r="C347" s="35"/>
       <c r="D347" s="3" t="s">
         <v>583</v>
       </c>
@@ -7584,9 +7590,9 @@
       </c>
     </row>
     <row r="348" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="35"/>
-      <c r="B348" s="38"/>
-      <c r="C348" s="38"/>
+      <c r="A348" s="44"/>
+      <c r="B348" s="35"/>
+      <c r="C348" s="35"/>
       <c r="D348" s="2" t="s">
         <v>584</v>
       </c>
@@ -7598,9 +7604,9 @@
       </c>
     </row>
     <row r="349" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="35"/>
-      <c r="B349" s="38"/>
-      <c r="C349" s="38"/>
+      <c r="A349" s="44"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="35"/>
       <c r="D349" s="5" t="s">
         <v>566</v>
       </c>
@@ -7612,9 +7618,9 @@
       </c>
     </row>
     <row r="350" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="35"/>
-      <c r="B350" s="38"/>
-      <c r="C350" s="38"/>
+      <c r="A350" s="44"/>
+      <c r="B350" s="35"/>
+      <c r="C350" s="35"/>
       <c r="D350" s="2" t="s">
         <v>567</v>
       </c>
@@ -7626,9 +7632,9 @@
       </c>
     </row>
     <row r="351" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="35"/>
-      <c r="B351" s="38"/>
-      <c r="C351" s="38"/>
+      <c r="A351" s="44"/>
+      <c r="B351" s="35"/>
+      <c r="C351" s="35"/>
       <c r="D351" s="2" t="s">
         <v>568</v>
       </c>
@@ -7640,9 +7646,9 @@
       </c>
     </row>
     <row r="352" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="35"/>
-      <c r="B352" s="38"/>
-      <c r="C352" s="38"/>
+      <c r="A352" s="44"/>
+      <c r="B352" s="35"/>
+      <c r="C352" s="35"/>
       <c r="D352" s="2" t="s">
         <v>569</v>
       </c>
@@ -7654,9 +7660,9 @@
       </c>
     </row>
     <row r="353" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="35"/>
-      <c r="B353" s="38"/>
-      <c r="C353" s="38"/>
+      <c r="A353" s="44"/>
+      <c r="B353" s="35"/>
+      <c r="C353" s="35"/>
       <c r="D353" s="2" t="s">
         <v>570</v>
       </c>
@@ -7668,9 +7674,9 @@
       </c>
     </row>
     <row r="354" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="35"/>
-      <c r="B354" s="38"/>
-      <c r="C354" s="38"/>
+      <c r="A354" s="44"/>
+      <c r="B354" s="35"/>
+      <c r="C354" s="35"/>
       <c r="D354" s="2" t="s">
         <v>571</v>
       </c>
@@ -7682,9 +7688,9 @@
       </c>
     </row>
     <row r="355" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="35"/>
-      <c r="B355" s="38"/>
-      <c r="C355" s="38"/>
+      <c r="A355" s="44"/>
+      <c r="B355" s="35"/>
+      <c r="C355" s="35"/>
       <c r="D355" s="2" t="s">
         <v>572</v>
       </c>
@@ -7696,9 +7702,9 @@
       </c>
     </row>
     <row r="356" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="35"/>
-      <c r="B356" s="38"/>
-      <c r="C356" s="38"/>
+      <c r="A356" s="44"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="35"/>
       <c r="D356" s="2" t="s">
         <v>573</v>
       </c>
@@ -7710,9 +7716,9 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="35"/>
-      <c r="B357" s="38"/>
-      <c r="C357" s="38"/>
+      <c r="A357" s="44"/>
+      <c r="B357" s="35"/>
+      <c r="C357" s="35"/>
       <c r="D357" s="2" t="s">
         <v>574</v>
       </c>
@@ -7724,9 +7730,9 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="35"/>
-      <c r="B358" s="38"/>
-      <c r="C358" s="38"/>
+      <c r="A358" s="44"/>
+      <c r="B358" s="35"/>
+      <c r="C358" s="35"/>
       <c r="D358" s="2" t="s">
         <v>575</v>
       </c>
@@ -7738,9 +7744,9 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="35"/>
-      <c r="B359" s="38"/>
-      <c r="C359" s="38"/>
+      <c r="A359" s="44"/>
+      <c r="B359" s="35"/>
+      <c r="C359" s="35"/>
       <c r="D359" s="2" t="s">
         <v>576</v>
       </c>
@@ -7752,9 +7758,9 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="35"/>
-      <c r="B360" s="38"/>
-      <c r="C360" s="38"/>
+      <c r="A360" s="44"/>
+      <c r="B360" s="35"/>
+      <c r="C360" s="35"/>
       <c r="D360" s="2" t="s">
         <v>577</v>
       </c>
@@ -7766,9 +7772,9 @@
       </c>
     </row>
     <row r="361" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="36"/>
-      <c r="B361" s="39"/>
-      <c r="C361" s="39"/>
+      <c r="A361" s="45"/>
+      <c r="B361" s="36"/>
+      <c r="C361" s="36"/>
       <c r="D361" s="12" t="s">
         <v>578</v>
       </c>
@@ -7780,13 +7786,13 @@
       </c>
     </row>
     <row r="362" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="34">
+      <c r="A362" s="43">
         <v>16</v>
       </c>
-      <c r="B362" s="37" t="s">
+      <c r="B362" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C362" s="37" t="s">
+      <c r="C362" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D362" s="15" t="s">
@@ -7800,9 +7806,9 @@
       </c>
     </row>
     <row r="363" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="35"/>
-      <c r="B363" s="38"/>
-      <c r="C363" s="38"/>
+      <c r="A363" s="44"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="35"/>
       <c r="D363" s="2" t="s">
         <v>597</v>
       </c>
@@ -7814,9 +7820,9 @@
       </c>
     </row>
     <row r="364" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="35"/>
-      <c r="B364" s="38"/>
-      <c r="C364" s="38"/>
+      <c r="A364" s="44"/>
+      <c r="B364" s="35"/>
+      <c r="C364" s="35"/>
       <c r="D364" s="2" t="s">
         <v>598</v>
       </c>
@@ -7828,9 +7834,9 @@
       </c>
     </row>
     <row r="365" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="35"/>
-      <c r="B365" s="38"/>
-      <c r="C365" s="38"/>
+      <c r="A365" s="44"/>
+      <c r="B365" s="35"/>
+      <c r="C365" s="35"/>
       <c r="D365" s="2" t="s">
         <v>599</v>
       </c>
@@ -7842,9 +7848,9 @@
       </c>
     </row>
     <row r="366" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="35"/>
-      <c r="B366" s="38"/>
-      <c r="C366" s="38"/>
+      <c r="A366" s="44"/>
+      <c r="B366" s="35"/>
+      <c r="C366" s="35"/>
       <c r="D366" s="2" t="s">
         <v>600</v>
       </c>
@@ -7856,9 +7862,9 @@
       </c>
     </row>
     <row r="367" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="35"/>
-      <c r="B367" s="38"/>
-      <c r="C367" s="38"/>
+      <c r="A367" s="44"/>
+      <c r="B367" s="35"/>
+      <c r="C367" s="35"/>
       <c r="D367" s="2" t="s">
         <v>601</v>
       </c>
@@ -7870,9 +7876,9 @@
       </c>
     </row>
     <row r="368" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="35"/>
-      <c r="B368" s="38"/>
-      <c r="C368" s="38"/>
+      <c r="A368" s="44"/>
+      <c r="B368" s="35"/>
+      <c r="C368" s="35"/>
       <c r="D368" s="2" t="s">
         <v>602</v>
       </c>
@@ -7884,9 +7890,9 @@
       </c>
     </row>
     <row r="369" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="35"/>
-      <c r="B369" s="38"/>
-      <c r="C369" s="38"/>
+      <c r="A369" s="44"/>
+      <c r="B369" s="35"/>
+      <c r="C369" s="35"/>
       <c r="D369" s="2" t="s">
         <v>603</v>
       </c>
@@ -7898,9 +7904,9 @@
       </c>
     </row>
     <row r="370" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="35"/>
-      <c r="B370" s="38"/>
-      <c r="C370" s="38"/>
+      <c r="A370" s="44"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="35"/>
       <c r="D370" s="2" t="s">
         <v>604</v>
       </c>
@@ -7912,9 +7918,9 @@
       </c>
     </row>
     <row r="371" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="35"/>
-      <c r="B371" s="38"/>
-      <c r="C371" s="38"/>
+      <c r="A371" s="44"/>
+      <c r="B371" s="35"/>
+      <c r="C371" s="35"/>
       <c r="D371" s="2" t="s">
         <v>605</v>
       </c>
@@ -7926,9 +7932,9 @@
       </c>
     </row>
     <row r="372" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="35"/>
-      <c r="B372" s="38"/>
-      <c r="C372" s="38"/>
+      <c r="A372" s="44"/>
+      <c r="B372" s="35"/>
+      <c r="C372" s="35"/>
       <c r="D372" s="2" t="s">
         <v>606</v>
       </c>
@@ -7940,9 +7946,9 @@
       </c>
     </row>
     <row r="373" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="35"/>
-      <c r="B373" s="38"/>
-      <c r="C373" s="38"/>
+      <c r="A373" s="44"/>
+      <c r="B373" s="35"/>
+      <c r="C373" s="35"/>
       <c r="D373" s="2" t="s">
         <v>607</v>
       </c>
@@ -7954,9 +7960,9 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="35"/>
-      <c r="B374" s="38"/>
-      <c r="C374" s="38"/>
+      <c r="A374" s="44"/>
+      <c r="B374" s="35"/>
+      <c r="C374" s="35"/>
       <c r="D374" s="2" t="s">
         <v>608</v>
       </c>
@@ -7968,9 +7974,9 @@
       </c>
     </row>
     <row r="375" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="35"/>
-      <c r="B375" s="38"/>
-      <c r="C375" s="38"/>
+      <c r="A375" s="44"/>
+      <c r="B375" s="35"/>
+      <c r="C375" s="35"/>
       <c r="D375" s="2" t="s">
         <v>609</v>
       </c>
@@ -7982,9 +7988,9 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="35"/>
-      <c r="B376" s="38"/>
-      <c r="C376" s="38"/>
+      <c r="A376" s="44"/>
+      <c r="B376" s="35"/>
+      <c r="C376" s="35"/>
       <c r="D376" s="2" t="s">
         <v>610</v>
       </c>
@@ -7996,9 +8002,9 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="35"/>
-      <c r="B377" s="38"/>
-      <c r="C377" s="38"/>
+      <c r="A377" s="44"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="35"/>
       <c r="D377" s="2" t="s">
         <v>611</v>
       </c>
@@ -8010,9 +8016,9 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="35"/>
-      <c r="B378" s="38"/>
-      <c r="C378" s="38"/>
+      <c r="A378" s="44"/>
+      <c r="B378" s="35"/>
+      <c r="C378" s="35"/>
       <c r="D378" s="2" t="s">
         <v>612</v>
       </c>
@@ -8024,9 +8030,9 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="35"/>
-      <c r="B379" s="38"/>
-      <c r="C379" s="38"/>
+      <c r="A379" s="44"/>
+      <c r="B379" s="35"/>
+      <c r="C379" s="35"/>
       <c r="D379" s="2" t="s">
         <v>613</v>
       </c>
@@ -8038,9 +8044,9 @@
       </c>
     </row>
     <row r="380" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="35"/>
-      <c r="B380" s="38"/>
-      <c r="C380" s="38"/>
+      <c r="A380" s="44"/>
+      <c r="B380" s="35"/>
+      <c r="C380" s="35"/>
       <c r="D380" s="2" t="s">
         <v>614</v>
       </c>
@@ -8052,9 +8058,9 @@
       </c>
     </row>
     <row r="381" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="35"/>
-      <c r="B381" s="38"/>
-      <c r="C381" s="38"/>
+      <c r="A381" s="44"/>
+      <c r="B381" s="35"/>
+      <c r="C381" s="35"/>
       <c r="D381" s="2" t="s">
         <v>615</v>
       </c>
@@ -8066,9 +8072,9 @@
       </c>
     </row>
     <row r="382" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="35"/>
-      <c r="B382" s="38"/>
-      <c r="C382" s="38"/>
+      <c r="A382" s="44"/>
+      <c r="B382" s="35"/>
+      <c r="C382" s="35"/>
       <c r="D382" s="2" t="s">
         <v>616</v>
       </c>
@@ -8080,9 +8086,9 @@
       </c>
     </row>
     <row r="383" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="35"/>
-      <c r="B383" s="38"/>
-      <c r="C383" s="38"/>
+      <c r="A383" s="44"/>
+      <c r="B383" s="35"/>
+      <c r="C383" s="35"/>
       <c r="D383" s="2" t="s">
         <v>617</v>
       </c>
@@ -8094,9 +8100,9 @@
       </c>
     </row>
     <row r="384" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="35"/>
-      <c r="B384" s="38"/>
-      <c r="C384" s="38"/>
+      <c r="A384" s="44"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="35"/>
       <c r="D384" s="2" t="s">
         <v>618</v>
       </c>
@@ -8108,9 +8114,9 @@
       </c>
     </row>
     <row r="385" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="35"/>
-      <c r="B385" s="38"/>
-      <c r="C385" s="38"/>
+      <c r="A385" s="44"/>
+      <c r="B385" s="35"/>
+      <c r="C385" s="35"/>
       <c r="D385" s="2" t="s">
         <v>619</v>
       </c>
@@ -8122,9 +8128,9 @@
       </c>
     </row>
     <row r="386" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="35"/>
-      <c r="B386" s="38"/>
-      <c r="C386" s="38"/>
+      <c r="A386" s="44"/>
+      <c r="B386" s="35"/>
+      <c r="C386" s="35"/>
       <c r="D386" s="2" t="s">
         <v>620</v>
       </c>
@@ -8136,9 +8142,9 @@
       </c>
     </row>
     <row r="387" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="35"/>
-      <c r="B387" s="38"/>
-      <c r="C387" s="38"/>
+      <c r="A387" s="44"/>
+      <c r="B387" s="35"/>
+      <c r="C387" s="35"/>
       <c r="D387" s="2" t="s">
         <v>621</v>
       </c>
@@ -8150,9 +8156,9 @@
       </c>
     </row>
     <row r="388" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="35"/>
-      <c r="B388" s="38"/>
-      <c r="C388" s="38"/>
+      <c r="A388" s="44"/>
+      <c r="B388" s="35"/>
+      <c r="C388" s="35"/>
       <c r="D388" s="2" t="s">
         <v>622</v>
       </c>
@@ -8164,9 +8170,9 @@
       </c>
     </row>
     <row r="389" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="35"/>
-      <c r="B389" s="38"/>
-      <c r="C389" s="38"/>
+      <c r="A389" s="44"/>
+      <c r="B389" s="35"/>
+      <c r="C389" s="35"/>
       <c r="D389" s="2" t="s">
         <v>623</v>
       </c>
@@ -8178,9 +8184,9 @@
       </c>
     </row>
     <row r="390" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="35"/>
-      <c r="B390" s="38"/>
-      <c r="C390" s="38"/>
+      <c r="A390" s="44"/>
+      <c r="B390" s="35"/>
+      <c r="C390" s="35"/>
       <c r="D390" s="2" t="s">
         <v>624</v>
       </c>
@@ -8192,9 +8198,9 @@
       </c>
     </row>
     <row r="391" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="35"/>
-      <c r="B391" s="38"/>
-      <c r="C391" s="38"/>
+      <c r="A391" s="44"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="35"/>
       <c r="D391" s="2" t="s">
         <v>626</v>
       </c>
@@ -8206,9 +8212,9 @@
       </c>
     </row>
     <row r="392" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="35"/>
-      <c r="B392" s="38"/>
-      <c r="C392" s="38"/>
+      <c r="A392" s="44"/>
+      <c r="B392" s="35"/>
+      <c r="C392" s="35"/>
       <c r="D392" s="2" t="s">
         <v>627</v>
       </c>
@@ -8220,9 +8226,9 @@
       </c>
     </row>
     <row r="393" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="35"/>
-      <c r="B393" s="38"/>
-      <c r="C393" s="38"/>
+      <c r="A393" s="44"/>
+      <c r="B393" s="35"/>
+      <c r="C393" s="35"/>
       <c r="D393" s="2" t="s">
         <v>628</v>
       </c>
@@ -8234,9 +8240,9 @@
       </c>
     </row>
     <row r="394" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="35"/>
-      <c r="B394" s="38"/>
-      <c r="C394" s="38"/>
+      <c r="A394" s="44"/>
+      <c r="B394" s="35"/>
+      <c r="C394" s="35"/>
       <c r="D394" s="2" t="s">
         <v>629</v>
       </c>
@@ -8248,9 +8254,9 @@
       </c>
     </row>
     <row r="395" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="36"/>
-      <c r="B395" s="39"/>
-      <c r="C395" s="39"/>
+      <c r="A395" s="45"/>
+      <c r="B395" s="36"/>
+      <c r="C395" s="36"/>
       <c r="D395" s="12" t="s">
         <v>630</v>
       </c>
@@ -8261,8 +8267,40 @@
         <v>632</v>
       </c>
     </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D396" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A317:A333"/>
+    <mergeCell ref="B317:B333"/>
+    <mergeCell ref="A334:A361"/>
+    <mergeCell ref="B334:B361"/>
+    <mergeCell ref="A362:A395"/>
+    <mergeCell ref="B362:B395"/>
+    <mergeCell ref="A259:A276"/>
+    <mergeCell ref="B259:B276"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="A280:A316"/>
+    <mergeCell ref="B280:B316"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="B205:B211"/>
+    <mergeCell ref="A212:A240"/>
+    <mergeCell ref="B212:B240"/>
+    <mergeCell ref="A241:A258"/>
+    <mergeCell ref="B241:B258"/>
+    <mergeCell ref="A2:A47"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="B64:B163"/>
+    <mergeCell ref="A64:A163"/>
+    <mergeCell ref="A164:A204"/>
+    <mergeCell ref="B164:B204"/>
     <mergeCell ref="C317:C333"/>
     <mergeCell ref="C280:C316"/>
     <mergeCell ref="C334:C361"/>
@@ -8278,30 +8316,6 @@
     <mergeCell ref="C212:C240"/>
     <mergeCell ref="C241:C258"/>
     <mergeCell ref="C259:C276"/>
-    <mergeCell ref="A2:A47"/>
-    <mergeCell ref="A48:A63"/>
-    <mergeCell ref="B64:B163"/>
-    <mergeCell ref="A64:A163"/>
-    <mergeCell ref="A164:A204"/>
-    <mergeCell ref="B164:B204"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="B205:B211"/>
-    <mergeCell ref="A212:A240"/>
-    <mergeCell ref="B212:B240"/>
-    <mergeCell ref="A241:A258"/>
-    <mergeCell ref="B241:B258"/>
-    <mergeCell ref="A259:A276"/>
-    <mergeCell ref="B259:B276"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="B277:B279"/>
-    <mergeCell ref="A280:A316"/>
-    <mergeCell ref="B280:B316"/>
-    <mergeCell ref="A317:A333"/>
-    <mergeCell ref="B317:B333"/>
-    <mergeCell ref="A334:A361"/>
-    <mergeCell ref="B334:B361"/>
-    <mergeCell ref="A362:A395"/>
-    <mergeCell ref="B362:B395"/>
   </mergeCells>
   <conditionalFormatting sqref="D396:D1048576 D1:D380">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
